--- a/2016elections/20161103-campaign_finance/builds/production/data/maindata.xlsx
+++ b/2016elections/20161103-campaign_finance/builds/production/data/maindata.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="candidates_donations" sheetId="1" r:id="rId1"/>
     <sheet name="races" sheetId="2" r:id="rId2"/>
     <sheet name="source" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3714" uniqueCount="1352">
   <si>
     <t>CandRegistrationNumber</t>
   </si>
@@ -4049,17 +4049,68 @@
     <t>Lisa Thompson</t>
   </si>
   <si>
-    <t>Source: Minnesota Campaign Finance Disclosure Board</t>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>candidates_donations</t>
+  </si>
+  <si>
+    <t>races</t>
+  </si>
+  <si>
+    <t>Campaign finance filings per Minnesota legislative candidate, 2016</t>
+  </si>
+  <si>
+    <t>Minnesota legislative races, 2016</t>
+  </si>
+  <si>
+    <t>Minnesota Legislature</t>
+  </si>
+  <si>
+    <t>Minnesota Campaign Finance Disclosure Board</t>
+  </si>
+  <si>
+    <t>Source: Minnesota Campaign Finance Disclosure Board, Minnesota Legislature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4082,14 +4133,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4421,7 +4481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -113088,21 +113148,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
         <v>1342</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1349</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/2016elections/20161103-campaign_finance/builds/production/data/maindata.xlsx
+++ b/2016elections/20161103-campaign_finance/builds/production/data/maindata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="7080" yWindow="760" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="candidates_donations" sheetId="1" r:id="rId1"/>
     <sheet name="races" sheetId="2" r:id="rId2"/>
     <sheet name="source" sheetId="3" r:id="rId3"/>
+    <sheet name="layout" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3714" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="1439">
   <si>
     <t>CandRegistrationNumber</t>
   </si>
@@ -4077,13 +4078,274 @@
   </si>
   <si>
     <t>Source: Minnesota Campaign Finance Disclosure Board, Minnesota Legislature</t>
+  </si>
+  <si>
+    <t>Legislative chamber</t>
+  </si>
+  <si>
+    <t>District name</t>
+  </si>
+  <si>
+    <t>DFL candidate</t>
+  </si>
+  <si>
+    <t>DFL candidate first name</t>
+  </si>
+  <si>
+    <t>DFL candidate last name</t>
+  </si>
+  <si>
+    <t>DFL candidate middle initial</t>
+  </si>
+  <si>
+    <t>GOP candidate first name</t>
+  </si>
+  <si>
+    <t>GOP candidate last name</t>
+  </si>
+  <si>
+    <t>GO candidate middle initial</t>
+  </si>
+  <si>
+    <t>Candidate expenditures</t>
+  </si>
+  <si>
+    <t>Independent expenditures</t>
+  </si>
+  <si>
+    <t>Total expenditures</t>
+  </si>
+  <si>
+    <t>GOP candidate</t>
+  </si>
+  <si>
+    <t>Canddate registration number</t>
+  </si>
+  <si>
+    <t>Primary record ID</t>
+  </si>
+  <si>
+    <t>Last updated</t>
+  </si>
+  <si>
+    <t>Date entered</t>
+  </si>
+  <si>
+    <t>Filing year</t>
+  </si>
+  <si>
+    <t>Candidate first name</t>
+  </si>
+  <si>
+    <t>Candidate last name</t>
+  </si>
+  <si>
+    <t>Candidate party affiliation</t>
+  </si>
+  <si>
+    <t>Office south</t>
+  </si>
+  <si>
+    <t>A Sent</t>
+  </si>
+  <si>
+    <t>A Received</t>
+  </si>
+  <si>
+    <t>A Entered</t>
+  </si>
+  <si>
+    <t>B Sent</t>
+  </si>
+  <si>
+    <t>B Received</t>
+  </si>
+  <si>
+    <t>B Entered</t>
+  </si>
+  <si>
+    <t>C Sent</t>
+  </si>
+  <si>
+    <t>C Received</t>
+  </si>
+  <si>
+    <t>C Entered</t>
+  </si>
+  <si>
+    <t>Independent contributions</t>
+  </si>
+  <si>
+    <t>Political party contributions</t>
+  </si>
+  <si>
+    <t>Public financing contributions</t>
+  </si>
+  <si>
+    <t>LB contributions</t>
+  </si>
+  <si>
+    <t>Public financing</t>
+  </si>
+  <si>
+    <t>Miscellaneous contributions</t>
+  </si>
+  <si>
+    <t>Notes payable</t>
+  </si>
+  <si>
+    <t>Notes receiveable</t>
+  </si>
+  <si>
+    <t>Total receipts</t>
+  </si>
+  <si>
+    <t>Campgain expenditures</t>
+  </si>
+  <si>
+    <t>Non-campaign disbursments</t>
+  </si>
+  <si>
+    <t>Has a primary?</t>
+  </si>
+  <si>
+    <t>A contested primary?</t>
+  </si>
+  <si>
+    <t>Waiver granted?</t>
+  </si>
+  <si>
+    <t>CFR electronic?</t>
+  </si>
+  <si>
+    <t>Affidavit of Contribution?</t>
+  </si>
+  <si>
+    <t>Economic interest?</t>
+  </si>
+  <si>
+    <t>Primary election winner?</t>
+  </si>
+  <si>
+    <t>General election winner?</t>
+  </si>
+  <si>
+    <t>Incumbent flag?</t>
+  </si>
+  <si>
+    <t>Unopposed candidate?</t>
+  </si>
+  <si>
+    <t>Spending limit waived?</t>
+  </si>
+  <si>
+    <t>First time candidate?</t>
+  </si>
+  <si>
+    <t>Public subisidy amount</t>
+  </si>
+  <si>
+    <t>Public subsidy?</t>
+  </si>
+  <si>
+    <t>Ten percent general election?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affidavit of Candidacy? </t>
+  </si>
+  <si>
+    <t>Passed exception test?</t>
+  </si>
+  <si>
+    <t>Checked by exception test?</t>
+  </si>
+  <si>
+    <t>Affidavid of independent expenditures?</t>
+  </si>
+  <si>
+    <t>Other disbursments</t>
+  </si>
+  <si>
+    <t>Other disbursments unpaid</t>
+  </si>
+  <si>
+    <t>Contributions to party units in kind</t>
+  </si>
+  <si>
+    <t>Contributions made to cash</t>
+  </si>
+  <si>
+    <t>Other sources of in-kind contributions</t>
+  </si>
+  <si>
+    <t>Other sources of cash contributions</t>
+  </si>
+  <si>
+    <t>Donors</t>
+  </si>
+  <si>
+    <t>Major donors</t>
+  </si>
+  <si>
+    <t>Total notes receiveable</t>
+  </si>
+  <si>
+    <t>Unpaid non-campaign expenditures</t>
+  </si>
+  <si>
+    <t>Unpaid campaign expenditures</t>
+  </si>
+  <si>
+    <t>Total in-kind expenditures</t>
+  </si>
+  <si>
+    <t>In-kind non-campaign expenditures</t>
+  </si>
+  <si>
+    <t>In-kind campaign expenditures</t>
+  </si>
+  <si>
+    <t>In-kind independent expenditures</t>
+  </si>
+  <si>
+    <t>Total unpaid expenditures</t>
+  </si>
+  <si>
+    <t>In-kind ballot question expenditures</t>
+  </si>
+  <si>
+    <t>In-kind ballot question expenditures unpaid</t>
+  </si>
+  <si>
+    <t>Ballot question expenditures</t>
+  </si>
+  <si>
+    <t>Independent expenditures unpaid</t>
+  </si>
+  <si>
+    <t>In-kind PP</t>
+  </si>
+  <si>
+    <t>In-kind PF</t>
+  </si>
+  <si>
+    <t>In-kind LB</t>
+  </si>
+  <si>
+    <t>In-kind transfers to candidate</t>
+  </si>
+  <si>
+    <t>Transfers to candidate</t>
+  </si>
+  <si>
+    <t>Transfers to committee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4115,6 +4377,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4133,23 +4402,80 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4481,7 +4807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD409"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:CD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -105544,6 +105872,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -105557,7 +105886,7 @@
   <dimension ref="A1:M202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M1" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -113138,6 +113467,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -113150,8 +113480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -113207,4 +113537,798 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>860</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>861</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>862</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>863</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>864</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>865</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>866</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>867</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>868</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>869</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>870</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>871</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>872</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>